--- a/Case.xlsx
+++ b/Case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata20feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata21feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9842DE5B-768F-47D4-8CD4-E4D6A69037B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F59E37C-3DE5-4E22-8AAA-9AA8CF08DF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="11" xr2:uid="{F7C25EE7-39BD-4AF9-9AAE-DD3D9D7CE00C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="11" xr2:uid="{F7C25EE7-39BD-4AF9-9AAE-DD3D9D7CE00C}"/>
   </bookViews>
   <sheets>
     <sheet name="NewNonInvestigativeCase" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="208">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -687,13 +687,10 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Identified Indian Custodian</t>
-  </si>
-  <si>
-    <t>Identified Legal Guardian</t>
-  </si>
-  <si>
     <t>Sibling</t>
+  </si>
+  <si>
+    <t>testT4249</t>
   </si>
   <si>
     <t>testT4245</t>
@@ -1195,7 +1192,7 @@
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.81640625" bestFit="1" customWidth="1"/>
@@ -1384,9 +1381,9 @@
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
@@ -1678,6 +1675,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -1689,17 +1697,6 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1710,7 +1707,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2010,11 +2007,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87BC585-1F44-4200-B8EC-30C288AC8195}">
-  <dimension ref="A1:AE28"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE28" sqref="AE28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2023,14 +2020,14 @@
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.7265625" bestFit="1" customWidth="1"/>
@@ -3032,7 +3029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3091,7 +3088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3150,7 +3147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3209,7 +3206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3268,7 +3265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3327,7 +3324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3386,7 +3383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -3445,7 +3442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -3486,7 +3483,7 @@
         <v>205</v>
       </c>
       <c r="N24" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="O24" t="s">
         <v>21</v>
@@ -3504,94 +3501,106 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" t="s">
+    <row r="25" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="M25" t="s">
-        <v>206</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="M25" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="N25" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="O25" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>15</v>
-      </c>
-      <c r="R25" t="s">
-        <v>15</v>
-      </c>
-      <c r="S25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="O25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+    </row>
+    <row r="26" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="20">
+        <v>1</v>
+      </c>
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K26" t="s">
@@ -3601,39 +3610,45 @@
         <v>51</v>
       </c>
       <c r="M26" t="s">
+        <v>182</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="S26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="T26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="U26" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="N26" t="s">
-        <v>183</v>
-      </c>
-      <c r="O26" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>15</v>
-      </c>
-      <c r="R26" t="s">
-        <v>15</v>
-      </c>
-      <c r="S26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="20" t="s">
-        <v>208</v>
-      </c>
       <c r="B27" s="20">
         <v>1</v>
       </c>
       <c r="C27" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>21</v>
@@ -3659,8 +3674,8 @@
       <c r="L27" t="s">
         <v>51</v>
       </c>
-      <c r="M27" t="s">
-        <v>182</v>
+      <c r="M27" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="N27" s="20" t="s">
         <v>15</v>
@@ -3684,71 +3699,6 @@
         <v>15</v>
       </c>
       <c r="U27" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" s="20">
-        <v>1</v>
-      </c>
-      <c r="C28" s="20">
-        <v>2</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" t="s">
-        <v>51</v>
-      </c>
-      <c r="L28" t="s">
-        <v>51</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="N28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="O28" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="P28" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="R28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="S28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="T28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="U28" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3770,9 +3720,9 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.81640625" bestFit="1" customWidth="1"/>
@@ -4537,7 +4487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFE0120-9007-4787-A7F1-2190242E996D}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -4545,7 +4495,7 @@
   <cols>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.7265625" bestFit="1" customWidth="1"/>
@@ -4557,7 +4507,7 @@
     <col min="15" max="15" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4607,7 +4557,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4657,7 +4607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -5113,14 +5063,14 @@
     <col min="4" max="4" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.36328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="28.1796875" bestFit="1" customWidth="1"/>
@@ -5386,7 +5336,7 @@
     <col min="4" max="4" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="24.1796875" customWidth="1"/>
     <col min="14" max="14" width="12.7265625" customWidth="1"/>
@@ -5768,25 +5718,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6003,25 +5934,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97CBD9C-DB7F-4B2F-B940-564A9866812B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6281C2F4-2CB2-4F59-911C-2BDAFF601D02}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C136F7A-E264-4989-853F-D1CFCEF74B79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6040,6 +5972,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6281C2F4-2CB2-4F59-911C-2BDAFF601D02}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97CBD9C-DB7F-4B2F-B940-564A9866812B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
